--- a/DFT-related/Pt/U-Netcharge/Pt-U-Netcharge.xlsx
+++ b/DFT-related/Pt/U-Netcharge/Pt-U-Netcharge.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\temp-423_home\EES-data\DFT-related\Pt\U-Netcharge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Git-respository\Importance of the catalyst–water Coulomb interaction for oxygen\DFT-related\Pt\U-Netcharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58BFFEF1-FDFD-40B6-915B-AE5EB0D16448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B791946F-3841-40FE-ADBC-EDC578E0DD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8310" yWindow="4455" windowWidth="21600" windowHeight="11355" xr2:uid="{E6307206-21E3-4A22-A6A5-120E742AFE79}"/>
+    <workbookView xWindow="33795" yWindow="3030" windowWidth="21600" windowHeight="11355" xr2:uid="{E6307206-21E3-4A22-A6A5-120E742AFE79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA2E41-3DBA-4439-80A4-F0FF4DA1B28B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,50 +423,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-8.7500000000000008E-3</v>
+        <v>-2.1250000000000002E-2</v>
       </c>
       <c r="B2">
-        <v>0.67122999999999999</v>
+        <v>0.30512</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-6.2500000000000003E-3</v>
+        <v>-1.813E-2</v>
       </c>
       <c r="B3">
-        <v>0.73175000000000001</v>
+        <v>0.39656000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-5.62E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="B4">
-        <v>0.75260000000000005</v>
+        <v>0.59931000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-5.0000000000000001E-3</v>
+        <v>-8.7500000000000008E-3</v>
       </c>
       <c r="B5">
-        <v>0.76936000000000004</v>
+        <v>0.67122999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0</v>
+        <v>-6.2500000000000003E-3</v>
       </c>
       <c r="B6">
-        <v>0.90934000000000004</v>
+        <v>0.73175000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>-5.62E-3</v>
+      </c>
+      <c r="B7">
+        <v>0.75260000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="B8">
+        <v>0.76936000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>-3.7499999999999999E-3</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>0.80162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.90934000000000004</v>
       </c>
     </row>
   </sheetData>
